--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H2">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>465.2500823767827</v>
+        <v>607.380289086774</v>
       </c>
       <c r="R2">
-        <v>4187.250741391044</v>
+        <v>5466.422601780967</v>
       </c>
       <c r="S2">
-        <v>0.1614635850720016</v>
+        <v>0.1810510811300755</v>
       </c>
       <c r="T2">
-        <v>0.1614635850720016</v>
+        <v>0.1810510811300755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H3">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>861.9672475936691</v>
+        <v>1148.619402499926</v>
       </c>
       <c r="R3">
-        <v>7757.705228343021</v>
+        <v>10337.57462249934</v>
       </c>
       <c r="S3">
-        <v>0.2991430357198895</v>
+        <v>0.3423864560080953</v>
       </c>
       <c r="T3">
-        <v>0.2991430357198895</v>
+        <v>0.3423864560080953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H4">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>419.9843858749737</v>
+        <v>303.217274293078</v>
       </c>
       <c r="R4">
-        <v>3779.859472874763</v>
+        <v>2728.955468637702</v>
       </c>
       <c r="S4">
-        <v>0.1457542667616735</v>
+        <v>0.0903845849370877</v>
       </c>
       <c r="T4">
-        <v>0.1457542667616735</v>
+        <v>0.09038458493708769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>70.84672380766844</v>
+        <v>69.40785500060065</v>
       </c>
       <c r="R5">
-        <v>637.6205142690159</v>
+        <v>624.6706950054059</v>
       </c>
       <c r="S5">
-        <v>0.02458713378008189</v>
+        <v>0.02068945504582049</v>
       </c>
       <c r="T5">
-        <v>0.02458713378008189</v>
+        <v>0.02068945504582049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14.538842</v>
       </c>
       <c r="I6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
-        <v>131.2574845974326</v>
+        <v>131.2574845974327</v>
       </c>
       <c r="R6">
         <v>1181.317361376894</v>
       </c>
       <c r="S6">
-        <v>0.0455524992545216</v>
+        <v>0.03912591488359</v>
       </c>
       <c r="T6">
-        <v>0.0455524992545216</v>
+        <v>0.03912591488359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14.538842</v>
       </c>
       <c r="I7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>63.95381519894244</v>
+        <v>34.64989066315355</v>
       </c>
       <c r="R7">
-        <v>575.584336790482</v>
+        <v>311.849015968382</v>
       </c>
       <c r="S7">
-        <v>0.02219497141902885</v>
+        <v>0.01032861994095202</v>
       </c>
       <c r="T7">
-        <v>0.02219497141902885</v>
+        <v>0.01032861994095202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H8">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I8">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J8">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>231.18566853764</v>
+        <v>312.7172309116474</v>
       </c>
       <c r="R8">
-        <v>2080.67101683876</v>
+        <v>2814.455078204826</v>
       </c>
       <c r="S8">
-        <v>0.080232262762126</v>
+        <v>0.09321638150241067</v>
       </c>
       <c r="T8">
-        <v>0.08023226276212601</v>
+        <v>0.09321638150241064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H9">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I9">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J9">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>428.31690297501</v>
+        <v>591.3808619987195</v>
       </c>
       <c r="R9">
-        <v>3854.85212677509</v>
+        <v>5322.427757988475</v>
       </c>
       <c r="S9">
-        <v>0.1486460407443292</v>
+        <v>0.1762818885438138</v>
       </c>
       <c r="T9">
-        <v>0.1486460407443293</v>
+        <v>0.1762818885438138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H10">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I10">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J10">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>208.69286154203</v>
+        <v>156.1151523769024</v>
       </c>
       <c r="R10">
-        <v>1878.23575387827</v>
+        <v>1405.036371392122</v>
       </c>
       <c r="S10">
-        <v>0.07242620448634778</v>
+        <v>0.04653561800815465</v>
       </c>
       <c r="T10">
-        <v>0.07242620448634779</v>
+        <v>0.04653561800815464</v>
       </c>
     </row>
   </sheetData>
